--- a/medicine/Enfance/Langelot_et_le_Plan_Rubis/Langelot_et_le_Plan_Rubis.xlsx
+++ b/medicine/Enfance/Langelot_et_le_Plan_Rubis/Langelot_et_le_Plan_Rubis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et le Plan Rubis est le vingt-huitième roman de la série Langelot, écrite par le Lieutenant X (Vladimir Volkoff). Paru pour la première fois en 1977, dans la Bibliothèque verte, le roman constitue le deuxième volet d'une tétralogie mettant en scène le traître Cordovan :
@@ -516,7 +528,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot : sous-lieutenant, agent peu expérimenté du Service National d'Information Fonctionnelle (S.N.I.F.), blond, 1,68 m, mince, « traits menus mais durs », orphelin.
 Gaspard, Esbon et « Mistigri » (Gersende d'Holbach) : aspirants, agents du SNIF.
@@ -553,7 +567,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action du roman se déroule en moins de 24 h (depuis environ vingt-et-une heures à vingt heures).
 Langelot, Gaspard, Esbon et « Mistigri » (tous quatre officiers et agents du SNIF), sont chargés par le capitaine Montferrand de surveiller l'appartement de Noémi Gracieux, ancienne secrétaire de Jacques Corsetier, dit Cordovan, lorsqu'il était au Deuxième Bureau. Celui-ci, qui souhaite instaurer en France un régime dictatorial par la prise du pouvoir violente, est soupçonné par le SNIF d'avoir confié l'un des trois exemplaires du Plan Rubis à son ex-secrétaire, les deux autres étant en sa possession. Ce plan prévoit les modalités concrètes de prise du pouvoir par Cordovan, les personnes et les ressources mises en œuvre. Il se présente sous la forme d'une chemise de couleur rouge, de format commercial, contenant 279 feuillets dactylographiés.
@@ -595,7 +611,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1977 - Hachette, Bibliothèque verte (français, version originale), illustré par Maurice Paulin (sauf image de couverture).</t>
         </is>
@@ -625,12 +643,14 @@
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'auteur orthographie le prénom de Noémi Gracieux sans "e" final. Noémi signifie « gracieux » en hébreu. Cette jeune secrétaire patriote est par conséquent deux fois gracieuse.
 Le capitaine Montferrand évoque (page 22, édition Hachette) l'existence d'un chef du réseau terroriste mis en place par Cordovan en France. Celui-ci n'est pas identifié en fin de roman.
 Le capitaine Montferrand répond à Langelot (page 25, édition Hachette) que la "seule amie" de la sérieuse Noémi Gracieux est sa machine à écrire ; c'est justement sous celle-ci qu'elle a caché l'exemplaire du Plan Rubis en sa possession.
-En 1977, date de parution du roman, le Deuxième Bureau n'est plus un service de renseignement français, ayant pratiquement disparu en 1939[1].
+En 1977, date de parution du roman, le Deuxième Bureau n'est plus un service de renseignement français, ayant pratiquement disparu en 1939.
 Le « Plan Rubis » peut s'inspirer d'une transposition par l'auteur du « réseau Saphir », un réseau soviétique nommé Saphir, qui a pénétré le SDECE et l'entourage immédiat du Général de Gaulle (voir : Philippe Thyraud de Vosjoli et Georges Pâques).
 Le batelier Alexandre Legrand constitue manifestement un jeu de mots.
 Il n'existe pas d'hôtel "Super Plazza", ni à Paris, où se trouve le fameux Plaza Athénée, ni davantage Porte Maillot, qui concentre plusieurs hôtels de prestige de grandes tailles.
